--- a/Table_S3.xlsx
+++ b/Table_S3.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jianguoyun\shinyReview\Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jianguoyun\shinyReview\Manuscript\BIB\R1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C53666-9407-4A14-8270-A0681CB2FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047AB5F5-0472-4D06-9A25-D8A373339F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk69743596" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="OLE_LINK101" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="OLE_LINK3" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="OLE_LINK43" localSheetId="0">Sheet1!$C$5</definedName>
-    <definedName name="OLE_LINK47" localSheetId="0">Sheet1!$C$12</definedName>
-    <definedName name="OLE_LINK61" localSheetId="0">Sheet1!$A$13</definedName>
-    <definedName name="OLE_LINK75" localSheetId="0">Sheet1!$C$15</definedName>
-    <definedName name="OLE_LINK77" localSheetId="0">Sheet1!$A$15</definedName>
+    <definedName name="_Hlk69743596" localSheetId="0">'Table S3'!#REF!</definedName>
+    <definedName name="OLE_LINK101" localSheetId="0">'Table S3'!#REF!</definedName>
+    <definedName name="OLE_LINK3" localSheetId="0">'Table S3'!#REF!</definedName>
+    <definedName name="OLE_LINK43" localSheetId="0">'Table S3'!$C$5</definedName>
+    <definedName name="OLE_LINK47" localSheetId="0">'Table S3'!$C$12</definedName>
+    <definedName name="OLE_LINK61" localSheetId="0">'Table S3'!$A$13</definedName>
+    <definedName name="OLE_LINK75" localSheetId="0">'Table S3'!$C$15</definedName>
+    <definedName name="OLE_LINK77" localSheetId="0">'Table S3'!$A$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2835,7 +2835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2843,11 +2843,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2872,6 +2881,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3156,25 +3170,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="51" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.46484375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="51" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>820</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>353</v>
       </c>
@@ -3207,7 +3221,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>574</v>
       </c>
@@ -3229,7 +3243,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>354</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>470</v>
       </c>
@@ -3251,7 +3265,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>500</v>
       </c>
@@ -3262,7 +3276,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>412</v>
       </c>
@@ -3273,7 +3287,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -3284,7 +3298,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3295,7 +3309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>563</v>
       </c>
@@ -3306,7 +3320,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>285</v>
       </c>
@@ -3317,7 +3331,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>419</v>
       </c>
@@ -3328,7 +3342,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>478</v>
       </c>
@@ -3339,7 +3353,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>410</v>
       </c>
@@ -3350,7 +3364,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>698</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>609</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>495</v>
       </c>
@@ -3394,7 +3408,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>396</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -3416,7 +3430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>618</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>751</v>
       </c>
@@ -3438,7 +3452,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>309</v>
       </c>
@@ -3449,7 +3463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>752</v>
       </c>
@@ -3460,7 +3474,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>753</v>
       </c>
@@ -3471,7 +3485,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>378</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>279</v>
       </c>
@@ -3493,7 +3507,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>395</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>457</v>
       </c>
@@ -3515,7 +3529,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>754</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>755</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>756</v>
       </c>
@@ -3548,7 +3562,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>513</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -3570,7 +3584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
         <v>236</v>
       </c>
@@ -3581,7 +3595,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>757</v>
       </c>
@@ -3592,7 +3606,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
         <v>758</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>759</v>
       </c>
@@ -3614,7 +3628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>760</v>
       </c>
@@ -3625,7 +3639,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>568</v>
       </c>
@@ -3636,7 +3650,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
         <v>515</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>237</v>
       </c>
@@ -3658,7 +3672,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
         <v>374</v>
       </c>
@@ -3669,7 +3683,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>208</v>
       </c>
@@ -3680,7 +3694,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
         <v>255</v>
       </c>
@@ -3691,7 +3705,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>165</v>
       </c>
@@ -3702,7 +3716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>204</v>
       </c>
@@ -3713,7 +3727,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>263</v>
       </c>
@@ -3724,7 +3738,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>203</v>
       </c>
@@ -3735,7 +3749,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -3746,7 +3760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>69</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>89</v>
       </c>
@@ -3768,7 +3782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>339</v>
       </c>
@@ -3779,7 +3793,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>761</v>
       </c>
@@ -3790,7 +3804,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>762</v>
       </c>
@@ -3801,7 +3815,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>763</v>
       </c>
@@ -3812,7 +3826,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>764</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>351</v>
       </c>
@@ -3834,7 +3848,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>766</v>
       </c>
@@ -3845,7 +3859,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>173</v>
       </c>
@@ -3856,7 +3870,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>205</v>
       </c>
@@ -3867,7 +3881,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>767</v>
       </c>
@@ -3878,7 +3892,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>768</v>
       </c>
@@ -3889,7 +3903,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>282</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -3911,7 +3925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>306</v>
       </c>
@@ -3922,7 +3936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>264</v>
       </c>
@@ -3933,7 +3947,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>459</v>
       </c>
@@ -3944,7 +3958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>472</v>
       </c>
@@ -3955,7 +3969,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>397</v>
       </c>
@@ -3966,7 +3980,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>202</v>
       </c>
@@ -3977,7 +3991,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>327</v>
       </c>
@@ -3988,7 +4002,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>683</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>769</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
         <v>437</v>
       </c>
@@ -4021,7 +4035,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>770</v>
       </c>
@@ -4032,7 +4046,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>771</v>
       </c>
@@ -4043,7 +4057,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>772</v>
       </c>
@@ -4054,7 +4068,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>773</v>
       </c>
@@ -4065,7 +4079,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>674</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>774</v>
       </c>
@@ -4087,7 +4101,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>595</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>98</v>
       </c>
@@ -4109,7 +4123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>776</v>
       </c>
@@ -4120,7 +4134,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
         <v>777</v>
       </c>
@@ -4131,7 +4145,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>600</v>
       </c>
@@ -4142,7 +4156,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="4" t="s">
         <v>512</v>
       </c>
@@ -4153,7 +4167,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>133</v>
       </c>
@@ -4164,7 +4178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="4" t="s">
         <v>778</v>
       </c>
@@ -4175,7 +4189,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>326</v>
       </c>
@@ -4186,7 +4200,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="4" t="s">
         <v>779</v>
       </c>
@@ -4197,7 +4211,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>514</v>
       </c>
@@ -4208,7 +4222,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="4" t="s">
         <v>780</v>
       </c>
@@ -4219,7 +4233,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>781</v>
       </c>
@@ -4230,7 +4244,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>782</v>
       </c>
@@ -4241,7 +4255,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>783</v>
       </c>
@@ -4252,7 +4266,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
         <v>330</v>
       </c>
@@ -4263,7 +4277,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>784</v>
       </c>
@@ -4274,7 +4288,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>549</v>
       </c>
@@ -4285,7 +4299,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>551</v>
       </c>
@@ -4296,7 +4310,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
         <v>233</v>
       </c>
@@ -4307,7 +4321,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>700</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
         <v>785</v>
       </c>
@@ -4329,7 +4343,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>335</v>
       </c>
@@ -4340,7 +4354,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>786</v>
       </c>
@@ -4351,7 +4365,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>665</v>
       </c>
@@ -4362,7 +4376,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>787</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>557</v>
       </c>
@@ -4384,7 +4398,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
         <v>615</v>
       </c>
@@ -4395,7 +4409,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>349</v>
       </c>
@@ -4406,7 +4420,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>485</v>
       </c>
@@ -4417,7 +4431,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>484</v>
       </c>
@@ -4428,7 +4442,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>788</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>332</v>
       </c>
@@ -4450,7 +4464,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>420</v>
       </c>
@@ -4461,7 +4475,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>789</v>
       </c>
@@ -4472,7 +4486,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
         <v>200</v>
       </c>
@@ -4483,7 +4497,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>201</v>
       </c>
@@ -4494,7 +4508,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
         <v>3</v>
       </c>
@@ -4505,7 +4519,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>790</v>
       </c>
@@ -4516,7 +4530,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
         <v>295</v>
       </c>
@@ -4527,7 +4541,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>791</v>
       </c>
@@ -4538,7 +4552,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
         <v>792</v>
       </c>
@@ -4549,7 +4563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>342</v>
       </c>
@@ -4560,7 +4574,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>206</v>
       </c>
@@ -4571,7 +4585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>516</v>
       </c>
@@ -4582,7 +4596,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
         <v>162</v>
       </c>
@@ -4593,7 +4607,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>672</v>
       </c>
@@ -4604,7 +4618,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>793</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>794</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>266</v>
       </c>
@@ -4637,7 +4651,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>636</v>
       </c>
@@ -4648,7 +4662,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
         <v>262</v>
       </c>
@@ -4659,7 +4673,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>350</v>
       </c>
@@ -4670,7 +4684,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>505</v>
       </c>
@@ -4681,7 +4695,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>795</v>
       </c>
@@ -4692,7 +4706,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>796</v>
       </c>
@@ -4703,7 +4717,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>209</v>
       </c>
@@ -4714,7 +4728,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>361</v>
       </c>
@@ -4725,7 +4739,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>797</v>
       </c>
@@ -4736,7 +4750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>87</v>
       </c>
@@ -4747,7 +4761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>798</v>
       </c>
@@ -4758,7 +4772,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
         <v>799</v>
       </c>
@@ -4769,7 +4783,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>291</v>
       </c>
@@ -4780,7 +4794,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="4" t="s">
         <v>526</v>
       </c>
@@ -4791,7 +4805,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>313</v>
       </c>
@@ -4802,7 +4816,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
         <v>288</v>
       </c>
@@ -4813,7 +4827,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="4" t="s">
         <v>800</v>
       </c>
@@ -4835,7 +4849,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>18</v>
       </c>
@@ -4846,7 +4860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>681</v>
       </c>
@@ -4857,7 +4871,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>589</v>
       </c>
@@ -4868,7 +4882,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>571</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>597</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" s="4" t="s">
         <v>707</v>
       </c>
@@ -4901,7 +4915,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>21</v>
       </c>
@@ -4912,7 +4926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" s="4" t="s">
         <v>75</v>
       </c>
@@ -4923,7 +4937,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
         <v>24</v>
       </c>
@@ -4934,7 +4948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" s="4" t="s">
         <v>801</v>
       </c>
@@ -4945,7 +4959,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>606</v>
       </c>
@@ -4956,7 +4970,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" s="4" t="s">
         <v>131</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>398</v>
       </c>
@@ -4978,7 +4992,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" s="4" t="s">
         <v>128</v>
       </c>
@@ -4989,7 +5003,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>651</v>
       </c>
@@ -5000,7 +5014,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" s="4" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>27</v>
       </c>
@@ -5022,7 +5036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" s="4" t="s">
         <v>30</v>
       </c>
@@ -5033,7 +5047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>85</v>
       </c>
@@ -5044,7 +5058,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" s="4" t="s">
         <v>127</v>
       </c>
@@ -5055,7 +5069,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>6</v>
       </c>
@@ -5066,7 +5080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" s="4" t="s">
         <v>675</v>
       </c>
@@ -5077,7 +5091,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>234</v>
       </c>
@@ -5088,7 +5102,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" s="4" t="s">
         <v>658</v>
       </c>
@@ -5099,7 +5113,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>633</v>
       </c>
@@ -5110,7 +5124,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" s="4" t="s">
         <v>150</v>
       </c>
@@ -5121,7 +5135,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>8</v>
       </c>
@@ -5132,7 +5146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" s="4" t="s">
         <v>692</v>
       </c>
@@ -5143,7 +5157,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>646</v>
       </c>
@@ -5154,7 +5168,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
         <v>565</v>
       </c>
@@ -5165,7 +5179,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>696</v>
       </c>
@@ -5176,7 +5190,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="4" t="s">
         <v>603</v>
       </c>
@@ -5187,7 +5201,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>276</v>
       </c>
@@ -5198,7 +5212,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="4" t="s">
         <v>677</v>
       </c>
@@ -5209,7 +5223,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>164</v>
       </c>
@@ -5220,7 +5234,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="4" t="s">
         <v>668</v>
       </c>
@@ -5231,7 +5245,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>645</v>
       </c>
@@ -5242,7 +5256,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="4" t="s">
         <v>36</v>
       </c>
@@ -5253,7 +5267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>33</v>
       </c>
@@ -5264,7 +5278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
         <v>612</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>543</v>
       </c>
@@ -5286,7 +5300,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="4" t="s">
         <v>701</v>
       </c>
@@ -5297,7 +5311,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>626</v>
       </c>
@@ -5308,7 +5322,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
         <v>107</v>
       </c>
@@ -5319,7 +5333,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
         <v>576</v>
       </c>
@@ -5330,7 +5344,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="4" t="s">
         <v>624</v>
       </c>
@@ -5341,7 +5355,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>10</v>
       </c>
@@ -5352,7 +5366,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="4" t="s">
         <v>180</v>
       </c>
@@ -5363,7 +5377,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>317</v>
       </c>
@@ -5374,7 +5388,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="4" t="s">
         <v>76</v>
       </c>
@@ -5385,7 +5399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>583</v>
       </c>
@@ -5396,7 +5410,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="4" t="s">
         <v>802</v>
       </c>
@@ -5407,7 +5421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>641</v>
       </c>
@@ -5418,7 +5432,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="4" t="s">
         <v>179</v>
       </c>
@@ -5429,7 +5443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>132</v>
       </c>
@@ -5440,7 +5454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" s="4" t="s">
         <v>686</v>
       </c>
@@ -5451,7 +5465,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>661</v>
       </c>
@@ -5462,7 +5476,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" s="4" t="s">
         <v>108</v>
       </c>
@@ -5473,7 +5487,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>555</v>
       </c>
@@ -5484,7 +5498,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" s="4" t="s">
         <v>638</v>
       </c>
@@ -5495,7 +5509,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>151</v>
       </c>
@@ -5506,7 +5520,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
         <v>655</v>
       </c>
@@ -5517,7 +5531,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>129</v>
       </c>
@@ -5528,7 +5542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" s="4" t="s">
         <v>536</v>
       </c>
@@ -5539,7 +5553,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>298</v>
       </c>
@@ -5550,7 +5564,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" s="4" t="s">
         <v>703</v>
       </c>
@@ -5561,7 +5575,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>320</v>
       </c>
@@ -5572,7 +5586,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" s="4" t="s">
         <v>241</v>
       </c>
@@ -5583,7 +5597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>630</v>
       </c>
@@ -5594,7 +5608,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
         <v>12</v>
       </c>
@@ -5605,7 +5619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>803</v>
       </c>
@@ -5616,7 +5630,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" s="4" t="s">
         <v>560</v>
       </c>
@@ -5627,7 +5641,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>586</v>
       </c>
@@ -5638,7 +5652,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" s="4" t="s">
         <v>659</v>
       </c>
@@ -5649,7 +5663,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>542</v>
       </c>
@@ -5660,7 +5674,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" s="4" t="s">
         <v>592</v>
       </c>
@@ -5671,7 +5685,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>649</v>
       </c>
@@ -5682,7 +5696,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" s="4" t="s">
         <v>13</v>
       </c>
@@ -5693,7 +5707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
         <v>41</v>
       </c>
@@ -5704,7 +5718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" s="4" t="s">
         <v>126</v>
       </c>
@@ -5715,7 +5729,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>804</v>
       </c>
@@ -5726,7 +5740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="4" t="s">
         <v>805</v>
       </c>
@@ -5737,7 +5751,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>806</v>
       </c>
@@ -5748,7 +5762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="4" t="s">
         <v>807</v>
       </c>
@@ -5759,7 +5773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>43</v>
       </c>
@@ -5770,7 +5784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" s="4" t="s">
         <v>689</v>
       </c>
@@ -5781,7 +5795,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>62</v>
       </c>
@@ -5792,7 +5806,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="4" t="s">
         <v>404</v>
       </c>
@@ -5803,7 +5817,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>406</v>
       </c>
@@ -5814,7 +5828,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="4" t="s">
         <v>106</v>
       </c>
@@ -5825,7 +5839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>235</v>
       </c>
@@ -5836,7 +5850,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="4" t="s">
         <v>452</v>
       </c>
@@ -5847,7 +5861,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>109</v>
       </c>
@@ -5858,7 +5872,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="4" t="s">
         <v>181</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>373</v>
       </c>
@@ -5880,7 +5894,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" s="4" t="s">
         <v>418</v>
       </c>
@@ -5891,7 +5905,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>531</v>
       </c>
@@ -5902,7 +5916,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="4" t="s">
         <v>88</v>
       </c>
@@ -5913,7 +5927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>621</v>
       </c>
@@ -5924,7 +5938,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="4" t="s">
         <v>352</v>
       </c>
@@ -5935,7 +5949,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>207</v>
       </c>
@@ -5946,7 +5960,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="4" t="s">
         <v>808</v>
       </c>
@@ -5957,7 +5971,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
         <v>58</v>
       </c>
@@ -5968,7 +5982,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="4" t="s">
         <v>809</v>
       </c>
@@ -5979,7 +5993,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
         <v>810</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="4" t="s">
         <v>369</v>
       </c>
@@ -6001,7 +6015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>163</v>
       </c>
@@ -6012,7 +6026,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="4" t="s">
         <v>811</v>
       </c>
@@ -6023,7 +6037,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>466</v>
       </c>
@@ -6034,7 +6048,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="4" t="s">
         <v>812</v>
       </c>
@@ -6045,7 +6059,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>399</v>
       </c>
@@ -6056,7 +6070,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="4" t="s">
         <v>813</v>
       </c>
@@ -6067,7 +6081,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="3" t="s">
         <v>344</v>
       </c>
@@ -6078,7 +6092,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="4" t="s">
         <v>814</v>
       </c>
@@ -6089,7 +6103,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>815</v>
       </c>
@@ -6100,7 +6114,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="4" t="s">
         <v>337</v>
       </c>
@@ -6111,7 +6125,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
         <v>816</v>
       </c>
@@ -6122,7 +6136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="4" t="s">
         <v>817</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>301</v>
       </c>
@@ -6144,7 +6158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="4" t="s">
         <v>303</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
         <v>142</v>
       </c>
@@ -6166,7 +6180,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="4" t="s">
         <v>251</v>
       </c>
@@ -6177,14 +6191,14 @@
         <v>253</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="14" t="s">
         <v>79</v>
       </c>
     </row>
